--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value658.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value658.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.911958963569649</v>
+        <v>1.261557579040527</v>
       </c>
       <c r="B1">
-        <v>2.31518740619084</v>
+        <v>2.325201034545898</v>
       </c>
       <c r="C1">
-        <v>2.402990050203607</v>
+        <v>3.028860807418823</v>
       </c>
       <c r="D1">
-        <v>2.971344467770619</v>
+        <v>3.4892258644104</v>
       </c>
       <c r="E1">
-        <v>2.023466767501545</v>
+        <v>1.4439697265625</v>
       </c>
     </row>
   </sheetData>
